--- a/Многомерный анализ и прогнозирование/лаб 2/Переделка.xlsx
+++ b/Многомерный анализ и прогнозирование/лаб 2/Переделка.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Итоги" sheetId="7" r:id="rId1"/>
@@ -17,9 +17,9 @@
     <sheet name="функционал качества" sheetId="5" r:id="rId3"/>
     <sheet name="Графики" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -590,7 +590,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -776,7 +776,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -796,7 +796,50 @@
     <cellStyle name="Обычный_Итоги" xfId="1"/>
     <cellStyle name="Процентный" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="77">
+  <dxfs count="79">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
@@ -1007,24 +1050,6 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3045,11 +3070,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-265595360"/>
-        <c:axId val="-265591552"/>
+        <c:axId val="-1178655472"/>
+        <c:axId val="-1178653296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-265595360"/>
+        <c:axId val="-1178655472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3092,7 +3117,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-265591552"/>
+        <c:crossAx val="-1178653296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3100,7 +3125,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-265591552"/>
+        <c:axId val="-1178653296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3151,7 +3176,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-265595360"/>
+        <c:crossAx val="-1178655472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3815,7 +3840,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5605,7 +5630,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица5" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица5" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:F13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -6024,84 +6049,82 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:BU87" totalsRowCount="1" headerRowDxfId="76" dataDxfId="75" headerRowCellStyle="Связанная ячейка" dataCellStyle="Связанная ячейка">
-  <autoFilter ref="A1:BU86">
-    <filterColumn colId="62">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:BU87" totalsRowCount="1" headerRowDxfId="78" dataDxfId="77">
+  <autoFilter ref="A1:BU86"/>
   <sortState ref="A3:P79">
     <sortCondition ref="O1:O86"/>
   </sortState>
   <tableColumns count="73">
-    <tableColumn id="1" name="Регион" dataDxfId="74" totalsRowDxfId="36" dataCellStyle="Связанная ячейка"/>
-    <tableColumn id="2" name="Cluster Membership-Ward" totalsRowFunction="count" dataDxfId="73" totalsRowDxfId="35" dataCellStyle="Связанная ячейка"/>
-    <tableColumn id="3" name="Cluster Membership-Complete" totalsRowFunction="count" dataDxfId="72" totalsRowDxfId="34" dataCellStyle="Связанная ячейка"/>
-    <tableColumn id="4" name="Cluster Membership-Single" totalsRowFunction="count" dataDxfId="71" totalsRowDxfId="33" dataCellStyle="Связанная ячейка"/>
-    <tableColumn id="5" name="CLUSTER K-means" totalsRowFunction="count" dataDxfId="70" totalsRowDxfId="32" dataCellStyle="Связанная ячейка"/>
-    <tableColumn id="6" name="X1" totalsRowFunction="average" dataDxfId="69" totalsRowDxfId="31" dataCellStyle="Связанная ячейка"/>
-    <tableColumn id="7" name="X2" totalsRowFunction="average" dataDxfId="68" totalsRowDxfId="30" dataCellStyle="Связанная ячейка"/>
-    <tableColumn id="8" name="X3" totalsRowFunction="average" dataDxfId="67" totalsRowDxfId="29" dataCellStyle="Связанная ячейка"/>
-    <tableColumn id="9" name="X4" totalsRowFunction="average" dataDxfId="66" totalsRowDxfId="28" dataCellStyle="Связанная ячейка"/>
-    <tableColumn id="10" name="X5" totalsRowFunction="average" dataDxfId="65" totalsRowDxfId="27" dataCellStyle="Связанная ячейка"/>
-    <tableColumn id="11" name="X6" totalsRowFunction="average" dataDxfId="64" totalsRowDxfId="26" dataCellStyle="Связанная ячейка"/>
-    <tableColumn id="12" name="X7" totalsRowFunction="average" dataDxfId="63" totalsRowDxfId="25" dataCellStyle="Связанная ячейка"/>
-    <tableColumn id="13" name="X8" totalsRowFunction="average" dataDxfId="62" totalsRowDxfId="24" dataCellStyle="Связанная ячейка"/>
-    <tableColumn id="14" name="X9" totalsRowFunction="average" dataDxfId="61" totalsRowDxfId="23" dataCellStyle="Связанная ячейка"/>
-    <tableColumn id="15" name="Расстояние" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="22" dataCellStyle="Связанная ячейка">
+    <tableColumn id="1" name="Регион" dataDxfId="76" totalsRowDxfId="38"/>
+    <tableColumn id="2" name="Cluster Membership-Ward" totalsRowFunction="count" dataDxfId="75" totalsRowDxfId="37"/>
+    <tableColumn id="3" name="Cluster Membership-Complete" totalsRowFunction="count" dataDxfId="74" totalsRowDxfId="36"/>
+    <tableColumn id="4" name="Cluster Membership-Single" totalsRowFunction="count" dataDxfId="73" totalsRowDxfId="35"/>
+    <tableColumn id="5" name="CLUSTER K-means" totalsRowFunction="count" dataDxfId="72" totalsRowDxfId="34"/>
+    <tableColumn id="6" name="X1" totalsRowFunction="average" dataDxfId="71" totalsRowDxfId="33"/>
+    <tableColumn id="7" name="X2" totalsRowFunction="average" dataDxfId="70" totalsRowDxfId="32"/>
+    <tableColumn id="8" name="X3" totalsRowFunction="average" dataDxfId="69" totalsRowDxfId="31"/>
+    <tableColumn id="9" name="X4" totalsRowFunction="average" dataDxfId="68" totalsRowDxfId="30"/>
+    <tableColumn id="10" name="X5" totalsRowFunction="average" dataDxfId="67" totalsRowDxfId="29"/>
+    <tableColumn id="11" name="X6" totalsRowFunction="average" dataDxfId="66" totalsRowDxfId="28"/>
+    <tableColumn id="12" name="X7" totalsRowFunction="average" dataDxfId="65" totalsRowDxfId="27"/>
+    <tableColumn id="13" name="X8" totalsRowFunction="average" dataDxfId="64" totalsRowDxfId="26"/>
+    <tableColumn id="14" name="X9" totalsRowFunction="average" dataDxfId="63" totalsRowDxfId="25"/>
+    <tableColumn id="15" name="Расстояние" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="24">
       <calculatedColumnFormula>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="обучающая выборка" totalsRowFunction="count" dataDxfId="59" totalsRowDxfId="21" dataCellStyle="Связанная ячейка"/>
-    <tableColumn id="17" name="функция" dataDxfId="58" totalsRowDxfId="20" dataCellStyle="Связанная ячейка"/>
-    <tableColumn id="18" name="Observed Махаланобис" dataDxfId="57" totalsRowDxfId="19" dataCellStyle="Связанная ячейка"/>
-    <tableColumn id="20" name="Махал1" dataDxfId="56" totalsRowDxfId="18" dataCellStyle="Связанная ячейка"/>
-    <tableColumn id="21" name="Махал2" dataDxfId="55" totalsRowDxfId="17" dataCellStyle="Связанная ячейка"/>
-    <tableColumn id="22" name="Махал3" dataDxfId="54" totalsRowDxfId="16" dataCellStyle="Связанная ячейка"/>
-    <tableColumn id="23" name="Махал4" dataDxfId="53" totalsRowDxfId="15" dataCellStyle="Связанная ячейка"/>
-    <tableColumn id="24" name="Махал5" dataDxfId="52" totalsRowDxfId="14" dataCellStyle="Связанная ячейка"/>
-    <tableColumn id="25" name="Минимум Махаланобис" dataDxfId="51" totalsRowDxfId="13" dataCellStyle="Связанная ячейка">
+    <tableColumn id="16" name="обучающая выборка" totalsRowFunction="count" dataDxfId="61" totalsRowDxfId="23"/>
+    <tableColumn id="17" name="функция" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="0">
+      <totalsRowFormula>30/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="18" name="Observed Махаланобис" dataDxfId="59" totalsRowDxfId="22"/>
+    <tableColumn id="20" name="Махал1" dataDxfId="58" totalsRowDxfId="21"/>
+    <tableColumn id="21" name="Махал2" dataDxfId="57" totalsRowDxfId="20"/>
+    <tableColumn id="22" name="Махал3" dataDxfId="56" totalsRowDxfId="19"/>
+    <tableColumn id="23" name="Махал4" dataDxfId="55" totalsRowDxfId="18"/>
+    <tableColumn id="24" name="Махал5" dataDxfId="54" totalsRowDxfId="17"/>
+    <tableColumn id="25" name="Минимум Махаланобис" dataDxfId="53" totalsRowDxfId="16">
       <calculatedColumnFormula>MIN(Таблица2[[#This Row],[Махал1]:[Махал5]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="Махаланобис классификация" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="12" dataCellStyle="Связанная ячейка">
+    <tableColumn id="26" name="Махаланобис классификация" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="15">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,)))))</calculatedColumnFormula>
       <totalsRowFormula>Таблица2[[#Totals],[Точность Махал]]/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="27" name="Точность Махал" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="11" dataCellStyle="Связанная ячейка">
+    <tableColumn id="27" name="Точность Махал" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="14">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" name="априор" totalsRowDxfId="10"/>
-    <tableColumn id="28" name="априор1" totalsRowDxfId="9"/>
-    <tableColumn id="29" name="априор2" totalsRowDxfId="8"/>
-    <tableColumn id="30" name="априор3" totalsRowDxfId="7"/>
-    <tableColumn id="31" name="априор4" totalsRowDxfId="6"/>
-    <tableColumn id="32" name="априор5" totalsRowDxfId="5"/>
-    <tableColumn id="34" name="априор макс" dataDxfId="48" dataCellStyle="Обычный">
+    <tableColumn id="33" name="априор" totalsRowDxfId="13"/>
+    <tableColumn id="28" name="априор1" totalsRowDxfId="12"/>
+    <tableColumn id="29" name="априор2" totalsRowDxfId="11"/>
+    <tableColumn id="30" name="априор3" totalsRowDxfId="10"/>
+    <tableColumn id="31" name="априор4" totalsRowDxfId="9"/>
+    <tableColumn id="32" name="априор5" totalsRowDxfId="8"/>
+    <tableColumn id="34" name="априор макс" dataDxfId="50" dataCellStyle="Обычный">
       <calculatedColumnFormula>MAX(Таблица2[[#This Row],[априор1]:[априор5]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" name="Априор Классификация" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="4" dataCellStyle="Обычный">
+    <tableColumn id="35" name="Априор Классификация" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="7" dataCellStyle="Обычный">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5)))))</calculatedColumnFormula>
       <totalsRowFormula>Таблица2[[#Totals],[Точность Априор]]/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="36" name="Точность Априор" totalsRowFunction="sum" dataDxfId="46" dataCellStyle="Обычный">
+    <tableColumn id="36" name="Точность Априор" totalsRowFunction="sum" dataDxfId="48" dataCellStyle="Обычный">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" name="фнкция ДА ВКЛ" dataCellStyle="Обычный"/>
+    <tableColumn id="37" name="фнкция ДА ВКЛ" totalsRowFunction="custom" totalsRowDxfId="6" dataCellStyle="Обычный">
+      <totalsRowFormula>28/30</totalsRowFormula>
+    </tableColumn>
     <tableColumn id="38" name="Observed МахаланобисВКЛ" dataCellStyle="Обычный"/>
     <tableColumn id="39" name="Махал1ВКЛ" dataCellStyle="Обычный"/>
     <tableColumn id="40" name="Махал2ВКл" dataCellStyle="Обычный"/>
     <tableColumn id="41" name="Махал3ВКЛ" dataCellStyle="Обычный"/>
     <tableColumn id="42" name="Махал4ВКЛ" dataCellStyle="Обычный"/>
     <tableColumn id="43" name="Махал5ВКл" dataCellStyle="Обычный"/>
-    <tableColumn id="44" name="Ммхаланобис минимум ВКЛ" dataDxfId="45" dataCellStyle="Обычный">
+    <tableColumn id="44" name="Ммхаланобис минимум ВКЛ" dataDxfId="47" dataCellStyle="Обычный">
       <calculatedColumnFormula>MIN(Таблица2[[#This Row],[Махал1ВКЛ]:[Махал5ВКл]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="45" name="МахаланобисКлассификацияВКЛ" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="3" dataCellStyle="Обычный">
+    <tableColumn id="45" name="МахаланобисКлассификацияВКЛ" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="5" dataCellStyle="Обычный">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[Ммхаланобис минимум ВКЛ]]=Таблица2[[#This Row],[Махал1ВКЛ]],1,IF(Таблица2[[#This Row],[Ммхаланобис минимум ВКЛ]]=Таблица2[[#This Row],[Махал2ВКл]],2,IF(Таблица2[[#This Row],[Ммхаланобис минимум ВКЛ]]=Таблица2[[#This Row],[Махал3ВКЛ]],3,IF(Таблица2[[#This Row],[Ммхаланобис минимум ВКЛ]]=Таблица2[[#This Row],[Махал4ВКЛ]],4,IF(Таблица2[[#This Row],[Ммхаланобис минимум ВКЛ]]=Таблица2[[#This Row],[Махал5ВКл]],5,)))))</calculatedColumnFormula>
       <totalsRowFormula>Таблица2[[#Totals],[Махал точность ВКЛ]]/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="46" name="Махал точность ВКЛ" totalsRowFunction="sum" dataDxfId="43" dataCellStyle="Обычный">
+    <tableColumn id="46" name="Махал точность ВКЛ" totalsRowFunction="sum" dataDxfId="45" dataCellStyle="Обычный">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[МахаланобисКлассификацияВКЛ]],1,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="47" name="априорВКЛ" dataCellStyle="Обычный"/>
@@ -6110,17 +6133,19 @@
     <tableColumn id="50" name="АприорВКл3" dataCellStyle="Обычный"/>
     <tableColumn id="51" name="АприорВКл4" dataCellStyle="Обычный"/>
     <tableColumn id="52" name="АприорВКл5" dataCellStyle="Обычный"/>
-    <tableColumn id="53" name="АприорВКЛ макс" dataDxfId="42" dataCellStyle="Обычный">
+    <tableColumn id="53" name="АприорВКЛ макс" dataDxfId="44" dataCellStyle="Обычный">
       <calculatedColumnFormula>MAX(Таблица2[[#This Row],[АприорВКл1]:[АприорВКл5]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="54" name="АприорВклКлассификация" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="2" dataCellStyle="Обычный">
+    <tableColumn id="54" name="АприорВклКлассификация" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="4" dataCellStyle="Обычный">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[АприорВКЛ макс]]=Таблица2[[#This Row],[АприорВКл1]],1,IF(Таблица2[[#This Row],[АприорВКЛ макс]]=Таблица2[[#This Row],[АприорВКл2]],2,IF(Таблица2[[#This Row],[АприорВКЛ макс]]=Таблица2[[#This Row],[АприорВКл3]],3,IF(Таблица2[[#This Row],[АприорВКЛ макс]]=Таблица2[[#This Row],[АприорВКл4]],4,IF(Таблица2[[#This Row],[АприорВКЛ макс]]=Таблица2[[#This Row],[АприорВКл5]],5)))))</calculatedColumnFormula>
       <totalsRowFormula>Таблица2[[#Totals],[Точность априор вкл]]/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="55" name="Точность априор вкл" totalsRowFunction="sum" dataDxfId="40" dataCellStyle="Обычный">
+    <tableColumn id="55" name="Точность априор вкл" totalsRowFunction="sum" dataDxfId="42" dataCellStyle="Обычный">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[АприорВклКлассификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="56" name="Фунция ДА ИСК" dataCellStyle="Обычный"/>
+    <tableColumn id="56" name="Фунция ДА ИСК" totalsRowFunction="custom" totalsRowDxfId="1" dataCellStyle="Обычный">
+      <totalsRowFormula>28/30</totalsRowFormula>
+    </tableColumn>
     <tableColumn id="57" name="Observed МахаланобисИСК" dataCellStyle="Обычный"/>
     <tableColumn id="58" name="Махал1ИСК" dataCellStyle="Обычный"/>
     <tableColumn id="59" name="Махал2ИСК" dataCellStyle="Обычный"/>
@@ -6130,7 +6155,7 @@
     <tableColumn id="63" name="Махал минимум ИСК" dataCellStyle="Обычный">
       <calculatedColumnFormula>MIN(Таблица2[[#This Row],[Махал1ИСК]:[Махал5ИСК]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="64" name="МАХАЛ ИСК Классификация" totalsRowFunction="custom" totalsRowDxfId="1" dataCellStyle="Обычный">
+    <tableColumn id="64" name="МАХАЛ ИСК Классификация" totalsRowFunction="custom" totalsRowDxfId="3" dataCellStyle="Обычный">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[Махал минимум ИСК]]=Таблица2[[#This Row],[Махал1ИСК]],1,IF(Таблица2[[#This Row],[Махал минимум ИСК]]=Таблица2[[#This Row],[Махал2ИСК]],2,IF(Таблица2[[#This Row],[Махал минимум ИСК]]=Таблица2[[#This Row],[Махал3ИСК]],3,IF(Таблица2[[#This Row],[Махал минимум ИСК]]=Таблица2[[#This Row],[Махал4ИСК]],4,IF(Таблица2[[#This Row],[Махал минимум ИСК]]=Таблица2[[#This Row],[Махал5ИСК]],5,)))))</calculatedColumnFormula>
       <totalsRowFormula>Таблица2[[#Totals],[МАХАЛ ИСК точность]]/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
@@ -6143,14 +6168,14 @@
     <tableColumn id="69" name="АприорИСК3" dataCellStyle="Обычный"/>
     <tableColumn id="70" name="АприорИСК4" dataCellStyle="Обычный"/>
     <tableColumn id="71" name="АприорИСК5" dataCellStyle="Обычный"/>
-    <tableColumn id="72" name="АприорИСК максимум" dataDxfId="39" dataCellStyle="Обычный">
+    <tableColumn id="72" name="АприорИСК максимум" dataDxfId="41" dataCellStyle="Обычный">
       <calculatedColumnFormula>MAX(Таблица2[[#This Row],[АприорИСК1]]:Таблица2[[#This Row],[АприорИСК5]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="73" name="АприорИСК классификация" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="0" dataCellStyle="Обычный">
+    <tableColumn id="73" name="АприорИСК классификация" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="2" dataCellStyle="Обычный">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[АприорИСК1]]=Таблица2[[#This Row],[АприорИСК максимум]],1,IF(Таблица2[[#This Row],[АприорИСК2]]=Таблица2[[#This Row],[АприорИСК максимум]],2,IF(Таблица2[[#This Row],[АприорИСК3]]=Таблица2[[#This Row],[АприорИСК максимум]],3,IF(Таблица2[[#This Row],[АприорИСК4]]=Таблица2[[#This Row],[АприорИСК максимум]],4,IF(Таблица2[[#This Row],[АприорИСК5]]=Таблица2[[#This Row],[АприорИСК максимум]],5)))))</calculatedColumnFormula>
       <totalsRowFormula>Таблица2[[#Totals],[АприорИскТочность]]/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="74" name="АприорИскТочность" totalsRowFunction="sum" dataDxfId="37" dataCellStyle="Обычный">
+    <tableColumn id="74" name="АприорИскТочность" totalsRowFunction="sum" dataDxfId="39" dataCellStyle="Обычный">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[АприорИСК классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6447,8 +6472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU91"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O87" sqref="O87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q87" sqref="Q87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6459,6 +6484,7 @@
     <col min="4" max="4" width="25.42578125" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
     <col min="35" max="35" width="19" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="34" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="22" bestFit="1" customWidth="1"/>
@@ -6690,7 +6716,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>45</v>
       </c>
@@ -6735,7 +6761,7 @@
       </c>
       <c r="O2" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>4.6335246110719073</v>
+        <v>3.5455367610323241</v>
       </c>
       <c r="P2" s="15">
         <v>3</v>
@@ -6930,7 +6956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -6975,7 +7001,7 @@
       </c>
       <c r="O3" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>6.059679998499405</v>
+        <v>4.1559908948085296</v>
       </c>
       <c r="P3" s="15">
         <v>5</v>
@@ -7170,7 +7196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
@@ -7215,7 +7241,7 @@
       </c>
       <c r="O4" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>3.3896146421142541</v>
+        <v>2.3739998720413951</v>
       </c>
       <c r="P4" s="15">
         <v>5</v>
@@ -7455,7 +7481,7 @@
       </c>
       <c r="O5" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>0.63786799419371165</v>
+        <v>1.7469602789198322</v>
       </c>
       <c r="P5" s="15">
         <v>1</v>
@@ -7650,7 +7676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>68</v>
       </c>
@@ -7695,7 +7721,7 @@
       </c>
       <c r="O6" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>4.7888321530651252</v>
+        <v>3.5881752244898477</v>
       </c>
       <c r="P6" s="15">
         <v>3</v>
@@ -7935,7 +7961,7 @@
       </c>
       <c r="O7" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>0.63492444291562511</v>
+        <v>2.0923711650137582</v>
       </c>
       <c r="P7" s="15">
         <v>1</v>
@@ -8130,7 +8156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -8175,7 +8201,7 @@
       </c>
       <c r="O8" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>4.1702155430164112</v>
+        <v>2.5048975545449186</v>
       </c>
       <c r="P8" s="15">
         <v>5</v>
@@ -8415,7 +8441,7 @@
       </c>
       <c r="O9" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>1.1227379823000738</v>
+        <v>0.78785227245208</v>
       </c>
       <c r="P9" s="15">
         <v>1</v>
@@ -8610,7 +8636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
@@ -8655,7 +8681,7 @@
       </c>
       <c r="O10" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>4.4289188250030094</v>
+        <v>3.0515070846700629</v>
       </c>
       <c r="P10" s="15">
         <v>5</v>
@@ -8895,7 +8921,7 @@
       </c>
       <c r="O11" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>1.0770766886104797</v>
+        <v>0.69999916866320588</v>
       </c>
       <c r="P11" s="15">
         <v>1</v>
@@ -9090,7 +9116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>43</v>
       </c>
@@ -9135,7 +9161,7 @@
       </c>
       <c r="O12" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>2.9006521781449064</v>
+        <v>4.5518737498873687</v>
       </c>
       <c r="P12" s="15">
         <v>4</v>
@@ -9330,7 +9356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
@@ -9375,7 +9401,7 @@
       </c>
       <c r="O13" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>4.9594364703181197</v>
+        <v>3.8042268031625897</v>
       </c>
       <c r="P13" s="15">
         <v>5</v>
@@ -9570,7 +9596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>51</v>
       </c>
@@ -9615,7 +9641,7 @@
       </c>
       <c r="O14" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>15.124754913273566</v>
+        <v>10.64785641320098</v>
       </c>
       <c r="P14" s="15">
         <v>5</v>
@@ -9855,7 +9881,7 @@
       </c>
       <c r="O15" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>0.86815264965636163</v>
+        <v>2.5505826921321959</v>
       </c>
       <c r="P15" s="15">
         <v>1</v>
@@ -10095,7 +10121,7 @@
       </c>
       <c r="O16" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>0.73331658433857727</v>
+        <v>2.2045060475669156</v>
       </c>
       <c r="P16" s="15">
         <v>1</v>
@@ -10335,7 +10361,7 @@
       </c>
       <c r="O17" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>3.152543701173093</v>
+        <v>4.8618885506375511</v>
       </c>
       <c r="P17" s="15">
         <v>4</v>
@@ -10575,7 +10601,7 @@
       </c>
       <c r="O18" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>0.95574676366086364</v>
+        <v>1.7703757037394579</v>
       </c>
       <c r="P18" s="15">
         <v>1</v>
@@ -10815,7 +10841,7 @@
       </c>
       <c r="O19" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>1.2770791965790786</v>
+        <v>1.0193020991836885</v>
       </c>
       <c r="P19" s="15">
         <v>1</v>
@@ -11010,7 +11036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>77</v>
       </c>
@@ -11055,7 +11081,7 @@
       </c>
       <c r="O20" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>4.1687201804114036</v>
+        <v>3.0081067878444205</v>
       </c>
       <c r="P20" s="15"/>
       <c r="Q20" s="15" t="s">
@@ -11248,7 +11274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -11293,7 +11319,7 @@
       </c>
       <c r="O21" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>10.3717036674702</v>
+        <v>12.413932537795384</v>
       </c>
       <c r="P21" s="15">
         <v>4</v>
@@ -11488,7 +11514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -11533,7 +11559,7 @@
       </c>
       <c r="O22" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>5.2024639062210296</v>
+        <v>3.0636332457298523</v>
       </c>
       <c r="P22" s="15">
         <v>3</v>
@@ -11728,7 +11754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>95</v>
       </c>
@@ -11773,7 +11799,7 @@
       </c>
       <c r="O23" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>7.8027131563076919</v>
+        <v>4.6904455959238796</v>
       </c>
       <c r="P23" s="15"/>
       <c r="Q23" s="15" t="s">
@@ -11966,7 +11992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
@@ -12011,7 +12037,7 @@
       </c>
       <c r="O24" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>9.6965787991081527</v>
+        <v>6.5879216036588764</v>
       </c>
       <c r="P24" s="15"/>
       <c r="Q24" s="15" t="s">
@@ -12249,7 +12275,7 @@
       </c>
       <c r="O25" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>1.5156534175709551</v>
+        <v>3.3865040786689367</v>
       </c>
       <c r="P25" s="15">
         <v>1</v>
@@ -12489,7 +12515,7 @@
       </c>
       <c r="O26" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>1.2510910405050546</v>
+        <v>2.128275417286944</v>
       </c>
       <c r="P26" s="15">
         <v>1</v>
@@ -12684,7 +12710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -12729,7 +12755,7 @@
       </c>
       <c r="O27" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>4.3315994715925932</v>
+        <v>3.1051436751714099</v>
       </c>
       <c r="P27" s="15">
         <v>3</v>
@@ -12969,7 +12995,7 @@
       </c>
       <c r="O28" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>1.521550966618602</v>
+        <v>1.4280775580256098</v>
       </c>
       <c r="P28" s="15">
         <v>1</v>
@@ -13164,7 +13190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
@@ -13209,7 +13235,7 @@
       </c>
       <c r="O29" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>6.4700025214427841</v>
+        <v>5.1448713876240886</v>
       </c>
       <c r="P29" s="15"/>
       <c r="Q29" s="15" t="s">
@@ -13402,7 +13428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>39</v>
       </c>
@@ -13447,7 +13473,7 @@
       </c>
       <c r="O30" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>7.8201042356570731</v>
+        <v>6.8420069727185551</v>
       </c>
       <c r="P30" s="15">
         <v>3</v>
@@ -13642,7 +13668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>50</v>
       </c>
@@ -13687,7 +13713,7 @@
       </c>
       <c r="O31" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>14.885420338800543</v>
+        <v>10.969901408299849</v>
       </c>
       <c r="P31" s="15"/>
       <c r="Q31" s="15" t="s">
@@ -13880,7 +13906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>19</v>
       </c>
@@ -13925,7 +13951,7 @@
       </c>
       <c r="O32" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>7.3407472235328379</v>
+        <v>9.6872021226572436</v>
       </c>
       <c r="P32" s="15">
         <v>4</v>
@@ -14120,7 +14146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>1</v>
       </c>
@@ -14165,7 +14191,7 @@
       </c>
       <c r="O33" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>13.683556256310387</v>
+        <v>9.9102538892762091</v>
       </c>
       <c r="P33" s="15"/>
       <c r="Q33" s="15" t="s">
@@ -14358,7 +14384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
@@ -14403,7 +14429,7 @@
       </c>
       <c r="O34" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>65.906287578181363</v>
+        <v>54.22540305123362</v>
       </c>
       <c r="P34" s="15">
         <v>2</v>
@@ -14643,7 +14669,7 @@
       </c>
       <c r="O35" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>1.9279480445793622</v>
+        <v>1.74177403644512</v>
       </c>
       <c r="P35" s="15"/>
       <c r="Q35" s="15" t="s">
@@ -14836,7 +14862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>25</v>
       </c>
@@ -14881,7 +14907,7 @@
       </c>
       <c r="O36" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>10.436637414909628</v>
+        <v>8.2523299787466176</v>
       </c>
       <c r="P36" s="15">
         <v>3</v>
@@ -15121,7 +15147,7 @@
       </c>
       <c r="O37" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>1.5211888012155022</v>
+        <v>3.1489525934349305</v>
       </c>
       <c r="P37" s="15"/>
       <c r="Q37" s="15" t="s">
@@ -15359,7 +15385,7 @@
       </c>
       <c r="O38" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>1.5903209868814423</v>
+        <v>2.0798846808109785</v>
       </c>
       <c r="P38" s="15"/>
       <c r="Q38" s="15" t="s">
@@ -15597,7 +15623,7 @@
       </c>
       <c r="O39" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>2.9729677787821576</v>
+        <v>2.8088081469136594</v>
       </c>
       <c r="P39" s="15"/>
       <c r="Q39" s="15" t="s">
@@ -15790,7 +15816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>37</v>
       </c>
@@ -15835,7 +15861,7 @@
       </c>
       <c r="O40" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>2.8214256701092562</v>
+        <v>2.3276187939336062</v>
       </c>
       <c r="P40" s="15"/>
       <c r="Q40" s="15" t="s">
@@ -16028,7 +16054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>71</v>
       </c>
@@ -16073,7 +16099,7 @@
       </c>
       <c r="O41" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>8.2605575816776522</v>
+        <v>5.9765761239321273</v>
       </c>
       <c r="P41" s="15"/>
       <c r="Q41" s="15" t="s">
@@ -16266,7 +16292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
@@ -16311,7 +16337,7 @@
       </c>
       <c r="O42" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>3.4158958759057478</v>
+        <v>2.4409058754714201</v>
       </c>
       <c r="P42" s="15"/>
       <c r="Q42" s="15" t="s">
@@ -16504,7 +16530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>11</v>
       </c>
@@ -16549,7 +16575,7 @@
       </c>
       <c r="O43" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>16.350378560726782</v>
+        <v>12.609448778618402</v>
       </c>
       <c r="P43" s="15"/>
       <c r="Q43" s="15" t="s">
@@ -16742,7 +16768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>27</v>
       </c>
@@ -16787,7 +16813,7 @@
       </c>
       <c r="O44" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>9.183112408159511</v>
+        <v>6.7372535080252494</v>
       </c>
       <c r="P44" s="15"/>
       <c r="Q44" s="15" t="s">
@@ -16980,7 +17006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>47</v>
       </c>
@@ -17025,7 +17051,7 @@
       </c>
       <c r="O45" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>17.217984824190388</v>
+        <v>19.935317220770148</v>
       </c>
       <c r="P45" s="15">
         <v>4</v>
@@ -17220,7 +17246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>12</v>
       </c>
@@ -17265,7 +17291,7 @@
       </c>
       <c r="O46" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>11.983839494487208</v>
+        <v>8.6183786206490058</v>
       </c>
       <c r="P46" s="15"/>
       <c r="Q46" s="15" t="s">
@@ -17458,7 +17484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>34</v>
       </c>
@@ -17503,7 +17529,7 @@
       </c>
       <c r="O47" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>7.9449940073505116</v>
+        <v>5.5248194181120622</v>
       </c>
       <c r="P47" s="15"/>
       <c r="Q47" s="15" t="s">
@@ -17741,7 +17767,7 @@
       </c>
       <c r="O48" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>5.2796714599938692</v>
+        <v>4.9595133997503522</v>
       </c>
       <c r="P48" s="15"/>
       <c r="Q48" s="15" t="s">
@@ -17934,7 +17960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>69</v>
       </c>
@@ -17979,7 +18005,7 @@
       </c>
       <c r="O49" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>7.6100079535701193</v>
+        <v>9.5205337454338803</v>
       </c>
       <c r="P49" s="15"/>
       <c r="Q49" s="15" t="s">
@@ -18172,7 +18198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>56</v>
       </c>
@@ -18217,7 +18243,7 @@
       </c>
       <c r="O50" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>5.1889849426360293</v>
+        <v>7.9213657540405116</v>
       </c>
       <c r="P50" s="15"/>
       <c r="Q50" s="15" t="s">
@@ -18410,7 +18436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>46</v>
       </c>
@@ -18455,7 +18481,7 @@
       </c>
       <c r="O51" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>4.5537536042625835</v>
+        <v>2.6029940358170953</v>
       </c>
       <c r="P51" s="15"/>
       <c r="Q51" s="15" t="s">
@@ -18648,7 +18674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>18</v>
       </c>
@@ -18693,7 +18719,7 @@
       </c>
       <c r="O52" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>18.176024628145804</v>
+        <v>12.800402445326567</v>
       </c>
       <c r="P52" s="15"/>
       <c r="Q52" s="15" t="s">
@@ -18886,7 +18912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>65</v>
       </c>
@@ -18931,7 +18957,7 @@
       </c>
       <c r="O53" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>20.061706726144102</v>
+        <v>15.672803117354693</v>
       </c>
       <c r="P53" s="15"/>
       <c r="Q53" s="15" t="s">
@@ -19169,7 +19195,7 @@
       </c>
       <c r="O54" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>2.0396283191348314</v>
+        <v>3.1381792422386958</v>
       </c>
       <c r="P54" s="15"/>
       <c r="Q54" s="15" t="s">
@@ -19407,7 +19433,7 @@
       </c>
       <c r="O55" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>2.2171538562354258</v>
+        <v>3.406241559376638</v>
       </c>
       <c r="P55" s="15"/>
       <c r="Q55" s="15" t="s">
@@ -19645,7 +19671,7 @@
       </c>
       <c r="O56" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>3.219796757863258</v>
+        <v>2.5278873215998674</v>
       </c>
       <c r="P56" s="15"/>
       <c r="Q56" s="15" t="s">
@@ -19883,7 +19909,7 @@
       </c>
       <c r="O57" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>2.6809322459656202</v>
+        <v>2.9034443673773915</v>
       </c>
       <c r="P57" s="15"/>
       <c r="Q57" s="15" t="s">
@@ -20121,7 +20147,7 @@
       </c>
       <c r="O58" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>6.0756732115546885</v>
+        <v>8.1283677557440566</v>
       </c>
       <c r="P58" s="15"/>
       <c r="Q58" s="15" t="s">
@@ -20314,7 +20340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>84</v>
       </c>
@@ -20359,7 +20385,7 @@
       </c>
       <c r="O59" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>2.9256457089999919</v>
+        <v>2.611112720783995</v>
       </c>
       <c r="P59" s="15"/>
       <c r="Q59" s="15" t="s">
@@ -20552,7 +20578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>59</v>
       </c>
@@ -20597,7 +20623,7 @@
       </c>
       <c r="O60" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>4.4586591487902476</v>
+        <v>3.0179610606263636</v>
       </c>
       <c r="P60" s="15"/>
       <c r="Q60" s="15" t="s">
@@ -20790,7 +20816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>0</v>
       </c>
@@ -20835,7 +20861,7 @@
       </c>
       <c r="O61" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>6.9282414536626034</v>
+        <v>6.393886853659148</v>
       </c>
       <c r="P61" s="15"/>
       <c r="Q61" s="15" t="s">
@@ -21028,7 +21054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>80</v>
       </c>
@@ -21073,7 +21099,7 @@
       </c>
       <c r="O62" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>23.285611420757437</v>
+        <v>26.804785628859786</v>
       </c>
       <c r="P62" s="15"/>
       <c r="Q62" s="15" t="s">
@@ -21311,7 +21337,7 @@
       </c>
       <c r="O63" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>3.3120522081031072</v>
+        <v>3.493128371764985</v>
       </c>
       <c r="P63" s="15"/>
       <c r="Q63" s="15" t="s">
@@ -21549,7 +21575,7 @@
       </c>
       <c r="O64" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>3.4879797370735384</v>
+        <v>3.8641824298753429</v>
       </c>
       <c r="P64" s="15"/>
       <c r="Q64" s="15" t="s">
@@ -21742,7 +21768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>30</v>
       </c>
@@ -21787,7 +21813,7 @@
       </c>
       <c r="O65" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>13.699251640223443</v>
+        <v>12.429901899851826</v>
       </c>
       <c r="P65" s="15"/>
       <c r="Q65" s="15" t="s">
@@ -22025,7 +22051,7 @@
       </c>
       <c r="O66" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>3.9667103433597548</v>
+        <v>4.2165720346286015</v>
       </c>
       <c r="P66" s="15"/>
       <c r="Q66" s="15" t="s">
@@ -22218,7 +22244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>29</v>
       </c>
@@ -22263,7 +22289,7 @@
       </c>
       <c r="O67" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>25.848815340158524</v>
+        <v>19.642262967293028</v>
       </c>
       <c r="P67" s="15"/>
       <c r="Q67" s="15" t="s">
@@ -22501,7 +22527,7 @@
       </c>
       <c r="O68" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>3.0152752191369103</v>
+        <v>4.6535195137126326</v>
       </c>
       <c r="P68" s="15"/>
       <c r="Q68" s="15" t="s">
@@ -22739,7 +22765,7 @@
       </c>
       <c r="O69" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>14.95391334567055</v>
+        <v>19.177326088168499</v>
       </c>
       <c r="P69" s="15"/>
       <c r="Q69" s="15" t="s">
@@ -22977,7 +23003,7 @@
       </c>
       <c r="O70" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>6.0022976523956579</v>
+        <v>6.565821699816464</v>
       </c>
       <c r="P70" s="15"/>
       <c r="Q70" s="15" t="s">
@@ -23170,7 +23196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>78</v>
       </c>
@@ -23215,7 +23241,7 @@
       </c>
       <c r="O71" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>16.392251618158063</v>
+        <v>14.144836888784321</v>
       </c>
       <c r="P71" s="15"/>
       <c r="Q71" s="15" t="s">
@@ -23408,7 +23434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>74</v>
       </c>
@@ -23453,7 +23479,7 @@
       </c>
       <c r="O72" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>12.747215784553585</v>
+        <v>11.745590811997223</v>
       </c>
       <c r="P72" s="15"/>
       <c r="Q72" s="15" t="s">
@@ -23646,7 +23672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>70</v>
       </c>
@@ -23691,7 +23717,7 @@
       </c>
       <c r="O73" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>13.392597552051377</v>
+        <v>12.759749014360002</v>
       </c>
       <c r="P73" s="15"/>
       <c r="Q73" s="15" t="s">
@@ -23929,7 +23955,7 @@
       </c>
       <c r="O74" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>3.3231092605585233</v>
+        <v>4.7879010546763592</v>
       </c>
       <c r="P74" s="15"/>
       <c r="Q74" s="15" t="s">
@@ -24167,7 +24193,7 @@
       </c>
       <c r="O75" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>5.0330845225097569</v>
+        <v>3.4928973101332255</v>
       </c>
       <c r="P75" s="15"/>
       <c r="Q75" s="15" t="s">
@@ -24405,7 +24431,7 @@
       </c>
       <c r="O76" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>8.6135128831445016</v>
+        <v>10.127926058631386</v>
       </c>
       <c r="P76" s="15"/>
       <c r="Q76" s="15" t="s">
@@ -24598,7 +24624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>17</v>
       </c>
@@ -24643,7 +24669,7 @@
       </c>
       <c r="O77" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>5.1772451817589076</v>
+        <v>5.1571064200729735</v>
       </c>
       <c r="P77" s="15"/>
       <c r="Q77" s="15" t="s">
@@ -24881,7 +24907,7 @@
       </c>
       <c r="O78" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>5.2903509073401773</v>
+        <v>6.0593089440009553</v>
       </c>
       <c r="P78" s="15"/>
       <c r="Q78" s="15" t="s">
@@ -25074,7 +25100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>44</v>
       </c>
@@ -25119,7 +25145,7 @@
       </c>
       <c r="O79" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>23.577562985962487</v>
+        <v>19.923995768626028</v>
       </c>
       <c r="P79" s="15"/>
       <c r="Q79" s="15" t="s">
@@ -25312,7 +25338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>10</v>
       </c>
@@ -25357,7 +25383,7 @@
       </c>
       <c r="O80" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>28.750860002848015</v>
+        <v>32.064351678043934</v>
       </c>
       <c r="P80" s="15"/>
       <c r="Q80" s="15" t="s">
@@ -25550,7 +25576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>5</v>
       </c>
@@ -25595,7 +25621,7 @@
       </c>
       <c r="O81" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>6.4743069181054338</v>
+        <v>5.7380958792916532</v>
       </c>
       <c r="P81" s="15"/>
       <c r="Q81" s="15" t="s">
@@ -25788,7 +25814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>48</v>
       </c>
@@ -25833,7 +25859,7 @@
       </c>
       <c r="O82" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>39.252518803288382</v>
+        <v>42.501664791088388</v>
       </c>
       <c r="P82" s="15"/>
       <c r="Q82" s="15" t="s">
@@ -26026,7 +26052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>58</v>
       </c>
@@ -26071,7 +26097,7 @@
       </c>
       <c r="O83" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>19.647939796548652</v>
+        <v>15.940368580875958</v>
       </c>
       <c r="P83" s="15"/>
       <c r="Q83" s="15" t="s">
@@ -26264,7 +26290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>82</v>
       </c>
@@ -26309,7 +26335,7 @@
       </c>
       <c r="O84" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>70.883352541042399</v>
+        <v>59.563694763421779</v>
       </c>
       <c r="P84" s="15">
         <v>2</v>
@@ -26504,7 +26530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>83</v>
       </c>
@@ -26549,7 +26575,7 @@
       </c>
       <c r="O85" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>42.608512197565489</v>
+        <v>35.014671615955351</v>
       </c>
       <c r="P85" s="15"/>
       <c r="Q85" s="15" t="s">
@@ -26742,7 +26768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:73" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>72</v>
       </c>
@@ -26787,7 +26813,7 @@
       </c>
       <c r="O86" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
-        <v>12.912176468296192</v>
+        <v>15.773996885338644</v>
       </c>
       <c r="P86" s="15"/>
       <c r="Q86" s="15" t="s">
@@ -26984,65 +27010,68 @@
       <c r="A87" s="22"/>
       <c r="B87" s="18">
         <f>SUBTOTAL(103,Таблица2[Cluster Membership-Ward])</f>
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="C87" s="18">
         <f>SUBTOTAL(103,Таблица2[Cluster Membership-Complete])</f>
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="D87" s="18">
         <f>SUBTOTAL(103,Таблица2[Cluster Membership-Single])</f>
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="E87" s="18">
         <f>SUBTOTAL(103,Таблица2[CLUSTER K-means])</f>
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="F87" s="18">
         <f>SUBTOTAL(101,Таблица2[X1])</f>
-        <v>-3.1016284196875056E-3</v>
+        <v>1.0094125274202484E-10</v>
       </c>
       <c r="G87" s="18">
         <f>SUBTOTAL(101,Таблица2[X2])</f>
-        <v>-0.15623132178718752</v>
+        <v>2.4247060241974925E-10</v>
       </c>
       <c r="H87" s="18">
         <f>SUBTOTAL(101,Таблица2[X3])</f>
-        <v>-0.26842140081562499</v>
+        <v>4.5882296001769205E-11</v>
       </c>
       <c r="I87" s="18">
         <f>SUBTOTAL(101,Таблица2[X4])</f>
-        <v>9.8517606000000091E-3</v>
+        <v>-4.7058683747155447E-12</v>
       </c>
       <c r="J87" s="18">
         <f>SUBTOTAL(101,Таблица2[X5])</f>
-        <v>-0.21595295528437508</v>
+        <v>-9.6447060795329063E-11</v>
       </c>
       <c r="K87" s="18">
         <f>SUBTOTAL(101,Таблица2[X6])</f>
-        <v>-0.38158512881874995</v>
+        <v>-1.4117659982225498E-11</v>
       </c>
       <c r="L87" s="18">
         <f>SUBTOTAL(101,Таблица2[X7])</f>
-        <v>-0.34048631566125004</v>
+        <v>3.1058818915434305E-11</v>
       </c>
       <c r="M87" s="18">
         <f>SUBTOTAL(101,Таблица2[X8])</f>
-        <v>-0.22966240225906248</v>
+        <v>4.2470553218056667E-11</v>
       </c>
       <c r="N87" s="18">
         <f>SUBTOTAL(101,Таблица2[X9])</f>
-        <v>0.56034441835624993</v>
+        <v>-1.4117622104028188E-11</v>
       </c>
       <c r="O87" s="18">
         <f>SUBTOTAL(109,Таблица2[Расстояние])</f>
-        <v>101.27130896962112</v>
+        <v>755.99999992232358</v>
       </c>
       <c r="P87" s="23">
         <f>SUBTOTAL(103,Таблица2[обучающая выборка])</f>
-        <v>12</v>
-      </c>
-      <c r="Q87" s="18"/>
+        <v>30</v>
+      </c>
+      <c r="Q87" s="16">
+        <f>30/Таблица2[[#Totals],[обучающая выборка]]</f>
+        <v>1</v>
+      </c>
       <c r="R87" s="18"/>
       <c r="S87" s="18"/>
       <c r="T87" s="18"/>
@@ -27056,7 +27085,7 @@
       </c>
       <c r="Z87" s="18">
         <f>SUBTOTAL(109,Таблица2[Точность Махал])</f>
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AA87" s="18"/>
       <c r="AB87" s="18"/>
@@ -27070,39 +27099,47 @@
       </c>
       <c r="AI87">
         <f>SUBTOTAL(109,Таблица2[Точность Априор])</f>
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="AJ87" s="25">
+        <f>28/30</f>
+        <v>0.93333333333333335</v>
       </c>
       <c r="AR87" s="25">
         <f>Таблица2[[#Totals],[Махал точность ВКЛ]]/Таблица2[[#Totals],[обучающая выборка]]</f>
-        <v>0.91666666666666663</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="AS87">
         <f>SUBTOTAL(109,Таблица2[Махал точность ВКЛ])</f>
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="BA87" s="25">
         <f>Таблица2[[#Totals],[Точность априор вкл]]/Таблица2[[#Totals],[обучающая выборка]]</f>
-        <v>0.91666666666666663</v>
+        <v>0.9</v>
       </c>
       <c r="BB87">
         <f>SUBTOTAL(109,Таблица2[Точность априор вкл])</f>
-        <v>11</v>
+        <v>27</v>
+      </c>
+      <c r="BC87" s="25">
+        <f>28/30</f>
+        <v>0.93333333333333335</v>
       </c>
       <c r="BK87" s="25">
         <f>Таблица2[[#Totals],[МАХАЛ ИСК точность]]/Таблица2[[#Totals],[обучающая выборка]]</f>
-        <v>0.91666666666666663</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="BL87">
         <f>SUBTOTAL(109,Таблица2[МАХАЛ ИСК точность])</f>
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="BT87" s="25">
         <f>Таблица2[[#Totals],[АприорИскТочность]]/Таблица2[[#Totals],[обучающая выборка]]</f>
-        <v>0.91666666666666663</v>
+        <v>0.9</v>
       </c>
       <c r="BU87">
         <f>SUBTOTAL(109,Таблица2[АприорИскТочность])</f>
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:73" x14ac:dyDescent="0.25">
@@ -29897,7 +29934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>

--- a/Многомерный анализ и прогнозирование/лаб 2/Переделка.xlsx
+++ b/Многомерный анализ и прогнозирование/лаб 2/Переделка.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="188">
   <si>
     <t>Алтайский край</t>
   </si>
@@ -584,6 +584,12 @@
   <si>
     <t>ДА махал ИСК</t>
   </si>
+  <si>
+    <t>ДА Функция</t>
+  </si>
+  <si>
+    <t>ДА функция ВКЛ ИСК</t>
+  </si>
 </sst>
 </file>
 
@@ -798,6 +804,90 @@
   </cellStyles>
   <dxfs count="79">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -823,83 +913,10 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1043,6 +1060,25 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="solid">
@@ -1050,6 +1086,25 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1086,6 +1141,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1122,6 +1178,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1158,6 +1215,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1176,6 +1234,180 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1225,6 +1457,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1243,295 +1476,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1569,7 +1513,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1607,7 +1550,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1645,7 +1587,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1683,7 +1624,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1721,7 +1661,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1759,7 +1698,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1797,7 +1735,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1835,7 +1772,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1873,7 +1809,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1911,7 +1846,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1949,7 +1883,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1987,8 +1920,81 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3070,11 +3076,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1178655472"/>
-        <c:axId val="-1178653296"/>
+        <c:axId val="465814128"/>
+        <c:axId val="520673728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1178655472"/>
+        <c:axId val="465814128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3117,7 +3123,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1178653296"/>
+        <c:crossAx val="520673728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3125,7 +3131,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1178653296"/>
+        <c:axId val="520673728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3176,7 +3182,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1178655472"/>
+        <c:crossAx val="465814128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3840,7 +3846,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6055,60 +6061,60 @@
     <sortCondition ref="O1:O86"/>
   </sortState>
   <tableColumns count="73">
-    <tableColumn id="1" name="Регион" dataDxfId="76" totalsRowDxfId="38"/>
-    <tableColumn id="2" name="Cluster Membership-Ward" totalsRowFunction="count" dataDxfId="75" totalsRowDxfId="37"/>
-    <tableColumn id="3" name="Cluster Membership-Complete" totalsRowFunction="count" dataDxfId="74" totalsRowDxfId="36"/>
-    <tableColumn id="4" name="Cluster Membership-Single" totalsRowFunction="count" dataDxfId="73" totalsRowDxfId="35"/>
-    <tableColumn id="5" name="CLUSTER K-means" totalsRowFunction="count" dataDxfId="72" totalsRowDxfId="34"/>
-    <tableColumn id="6" name="X1" totalsRowFunction="average" dataDxfId="71" totalsRowDxfId="33"/>
-    <tableColumn id="7" name="X2" totalsRowFunction="average" dataDxfId="70" totalsRowDxfId="32"/>
-    <tableColumn id="8" name="X3" totalsRowFunction="average" dataDxfId="69" totalsRowDxfId="31"/>
-    <tableColumn id="9" name="X4" totalsRowFunction="average" dataDxfId="68" totalsRowDxfId="30"/>
-    <tableColumn id="10" name="X5" totalsRowFunction="average" dataDxfId="67" totalsRowDxfId="29"/>
-    <tableColumn id="11" name="X6" totalsRowFunction="average" dataDxfId="66" totalsRowDxfId="28"/>
-    <tableColumn id="12" name="X7" totalsRowFunction="average" dataDxfId="65" totalsRowDxfId="27"/>
-    <tableColumn id="13" name="X8" totalsRowFunction="average" dataDxfId="64" totalsRowDxfId="26"/>
-    <tableColumn id="14" name="X9" totalsRowFunction="average" dataDxfId="63" totalsRowDxfId="25"/>
-    <tableColumn id="15" name="Расстояние" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="24">
+    <tableColumn id="1" name="Регион" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="2" name="Cluster Membership-Ward" totalsRowFunction="count" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="3" name="Cluster Membership-Complete" totalsRowFunction="count" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="4" name="Cluster Membership-Single" totalsRowFunction="count" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="5" name="CLUSTER K-means" totalsRowFunction="count" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="6" name="X1" totalsRowFunction="average" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="7" name="X2" totalsRowFunction="average" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="8" name="X3" totalsRowFunction="average" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="9" name="X4" totalsRowFunction="average" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="10" name="X5" totalsRowFunction="average" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="11" name="X6" totalsRowFunction="average" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="12" name="X7" totalsRowFunction="average" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="13" name="X8" totalsRowFunction="average" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="14" name="X9" totalsRowFunction="average" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="15" name="Расстояние" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="47">
       <calculatedColumnFormula>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="обучающая выборка" totalsRowFunction="count" dataDxfId="61" totalsRowDxfId="23"/>
-    <tableColumn id="17" name="функция" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="0">
+    <tableColumn id="16" name="обучающая выборка" totalsRowFunction="count" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="17" name="функция" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="43">
       <totalsRowFormula>30/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" name="Observed Махаланобис" dataDxfId="59" totalsRowDxfId="22"/>
-    <tableColumn id="20" name="Махал1" dataDxfId="58" totalsRowDxfId="21"/>
-    <tableColumn id="21" name="Махал2" dataDxfId="57" totalsRowDxfId="20"/>
-    <tableColumn id="22" name="Махал3" dataDxfId="56" totalsRowDxfId="19"/>
-    <tableColumn id="23" name="Махал4" dataDxfId="55" totalsRowDxfId="18"/>
-    <tableColumn id="24" name="Махал5" dataDxfId="54" totalsRowDxfId="17"/>
-    <tableColumn id="25" name="Минимум Махаланобис" dataDxfId="53" totalsRowDxfId="16">
+    <tableColumn id="18" name="Observed Махаланобис" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="20" name="Махал1" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="21" name="Махал2" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="22" name="Махал3" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="23" name="Махал4" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="24" name="Махал5" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="25" name="Минимум Махаланобис" dataDxfId="30" totalsRowDxfId="29">
       <calculatedColumnFormula>MIN(Таблица2[[#This Row],[Махал1]:[Махал5]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="Махаланобис классификация" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="15">
+    <tableColumn id="26" name="Махаланобис классификация" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="27">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,)))))</calculatedColumnFormula>
       <totalsRowFormula>Таблица2[[#Totals],[Точность Махал]]/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="27" name="Точность Махал" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="14">
+    <tableColumn id="27" name="Точность Махал" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" name="априор" totalsRowDxfId="13"/>
-    <tableColumn id="28" name="априор1" totalsRowDxfId="12"/>
-    <tableColumn id="29" name="априор2" totalsRowDxfId="11"/>
-    <tableColumn id="30" name="априор3" totalsRowDxfId="10"/>
-    <tableColumn id="31" name="априор4" totalsRowDxfId="9"/>
-    <tableColumn id="32" name="априор5" totalsRowDxfId="8"/>
-    <tableColumn id="34" name="априор макс" dataDxfId="50" dataCellStyle="Обычный">
+    <tableColumn id="33" name="априор" totalsRowDxfId="24"/>
+    <tableColumn id="28" name="априор1" totalsRowDxfId="23"/>
+    <tableColumn id="29" name="априор2" totalsRowDxfId="22"/>
+    <tableColumn id="30" name="априор3" totalsRowDxfId="21"/>
+    <tableColumn id="31" name="априор4" totalsRowDxfId="20"/>
+    <tableColumn id="32" name="априор5" totalsRowDxfId="19"/>
+    <tableColumn id="34" name="априор макс" dataDxfId="18" dataCellStyle="Обычный">
       <calculatedColumnFormula>MAX(Таблица2[[#This Row],[априор1]:[априор5]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" name="Априор Классификация" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="7" dataCellStyle="Обычный">
+    <tableColumn id="35" name="Априор Классификация" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Обычный">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5)))))</calculatedColumnFormula>
       <totalsRowFormula>Таблица2[[#Totals],[Точность Априор]]/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="36" name="Точность Априор" totalsRowFunction="sum" dataDxfId="48" dataCellStyle="Обычный">
+    <tableColumn id="36" name="Точность Априор" totalsRowFunction="sum" dataDxfId="15" dataCellStyle="Обычный">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" name="фнкция ДА ВКЛ" totalsRowFunction="custom" totalsRowDxfId="6" dataCellStyle="Обычный">
+    <tableColumn id="37" name="фнкция ДА ВКЛ" totalsRowFunction="custom" totalsRowDxfId="14" dataCellStyle="Обычный">
       <totalsRowFormula>28/30</totalsRowFormula>
     </tableColumn>
     <tableColumn id="38" name="Observed МахаланобисВКЛ" dataCellStyle="Обычный"/>
@@ -6117,14 +6123,14 @@
     <tableColumn id="41" name="Махал3ВКЛ" dataCellStyle="Обычный"/>
     <tableColumn id="42" name="Махал4ВКЛ" dataCellStyle="Обычный"/>
     <tableColumn id="43" name="Махал5ВКл" dataCellStyle="Обычный"/>
-    <tableColumn id="44" name="Ммхаланобис минимум ВКЛ" dataDxfId="47" dataCellStyle="Обычный">
+    <tableColumn id="44" name="Ммхаланобис минимум ВКЛ" dataDxfId="13" dataCellStyle="Обычный">
       <calculatedColumnFormula>MIN(Таблица2[[#This Row],[Махал1ВКЛ]:[Махал5ВКл]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="45" name="МахаланобисКлассификацияВКЛ" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="5" dataCellStyle="Обычный">
+    <tableColumn id="45" name="МахаланобисКлассификацияВКЛ" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="11" dataCellStyle="Обычный">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[Ммхаланобис минимум ВКЛ]]=Таблица2[[#This Row],[Махал1ВКЛ]],1,IF(Таблица2[[#This Row],[Ммхаланобис минимум ВКЛ]]=Таблица2[[#This Row],[Махал2ВКл]],2,IF(Таблица2[[#This Row],[Ммхаланобис минимум ВКЛ]]=Таблица2[[#This Row],[Махал3ВКЛ]],3,IF(Таблица2[[#This Row],[Ммхаланобис минимум ВКЛ]]=Таблица2[[#This Row],[Махал4ВКЛ]],4,IF(Таблица2[[#This Row],[Ммхаланобис минимум ВКЛ]]=Таблица2[[#This Row],[Махал5ВКл]],5,)))))</calculatedColumnFormula>
       <totalsRowFormula>Таблица2[[#Totals],[Махал точность ВКЛ]]/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="46" name="Махал точность ВКЛ" totalsRowFunction="sum" dataDxfId="45" dataCellStyle="Обычный">
+    <tableColumn id="46" name="Махал точность ВКЛ" totalsRowFunction="sum" dataDxfId="10" dataCellStyle="Обычный">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[МахаланобисКлассификацияВКЛ]],1,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="47" name="априорВКЛ" dataCellStyle="Обычный"/>
@@ -6133,17 +6139,17 @@
     <tableColumn id="50" name="АприорВКл3" dataCellStyle="Обычный"/>
     <tableColumn id="51" name="АприорВКл4" dataCellStyle="Обычный"/>
     <tableColumn id="52" name="АприорВКл5" dataCellStyle="Обычный"/>
-    <tableColumn id="53" name="АприорВКЛ макс" dataDxfId="44" dataCellStyle="Обычный">
+    <tableColumn id="53" name="АприорВКЛ макс" dataDxfId="9" dataCellStyle="Обычный">
       <calculatedColumnFormula>MAX(Таблица2[[#This Row],[АприорВКл1]:[АприорВКл5]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="54" name="АприорВклКлассификация" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="4" dataCellStyle="Обычный">
+    <tableColumn id="54" name="АприорВклКлассификация" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="7" dataCellStyle="Обычный">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[АприорВКЛ макс]]=Таблица2[[#This Row],[АприорВКл1]],1,IF(Таблица2[[#This Row],[АприорВКЛ макс]]=Таблица2[[#This Row],[АприорВКл2]],2,IF(Таблица2[[#This Row],[АприорВКЛ макс]]=Таблица2[[#This Row],[АприорВКл3]],3,IF(Таблица2[[#This Row],[АприорВКЛ макс]]=Таблица2[[#This Row],[АприорВКл4]],4,IF(Таблица2[[#This Row],[АприорВКЛ макс]]=Таблица2[[#This Row],[АприорВКл5]],5)))))</calculatedColumnFormula>
       <totalsRowFormula>Таблица2[[#Totals],[Точность априор вкл]]/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="55" name="Точность априор вкл" totalsRowFunction="sum" dataDxfId="42" dataCellStyle="Обычный">
+    <tableColumn id="55" name="Точность априор вкл" totalsRowFunction="sum" dataDxfId="6" dataCellStyle="Обычный">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[АприорВклКлассификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="56" name="Фунция ДА ИСК" totalsRowFunction="custom" totalsRowDxfId="1" dataCellStyle="Обычный">
+    <tableColumn id="56" name="Фунция ДА ИСК" totalsRowFunction="custom" totalsRowDxfId="5" dataCellStyle="Обычный">
       <totalsRowFormula>28/30</totalsRowFormula>
     </tableColumn>
     <tableColumn id="57" name="Observed МахаланобисИСК" dataCellStyle="Обычный"/>
@@ -6155,7 +6161,7 @@
     <tableColumn id="63" name="Махал минимум ИСК" dataCellStyle="Обычный">
       <calculatedColumnFormula>MIN(Таблица2[[#This Row],[Махал1ИСК]:[Махал5ИСК]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="64" name="МАХАЛ ИСК Классификация" totalsRowFunction="custom" totalsRowDxfId="3" dataCellStyle="Обычный">
+    <tableColumn id="64" name="МАХАЛ ИСК Классификация" totalsRowFunction="custom" totalsRowDxfId="4" dataCellStyle="Обычный">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[Махал минимум ИСК]]=Таблица2[[#This Row],[Махал1ИСК]],1,IF(Таблица2[[#This Row],[Махал минимум ИСК]]=Таблица2[[#This Row],[Махал2ИСК]],2,IF(Таблица2[[#This Row],[Махал минимум ИСК]]=Таблица2[[#This Row],[Махал3ИСК]],3,IF(Таблица2[[#This Row],[Махал минимум ИСК]]=Таблица2[[#This Row],[Махал4ИСК]],4,IF(Таблица2[[#This Row],[Махал минимум ИСК]]=Таблица2[[#This Row],[Махал5ИСК]],5,)))))</calculatedColumnFormula>
       <totalsRowFormula>Таблица2[[#Totals],[МАХАЛ ИСК точность]]/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
@@ -6168,14 +6174,14 @@
     <tableColumn id="69" name="АприорИСК3" dataCellStyle="Обычный"/>
     <tableColumn id="70" name="АприорИСК4" dataCellStyle="Обычный"/>
     <tableColumn id="71" name="АприорИСК5" dataCellStyle="Обычный"/>
-    <tableColumn id="72" name="АприорИСК максимум" dataDxfId="41" dataCellStyle="Обычный">
+    <tableColumn id="72" name="АприорИСК максимум" dataDxfId="3" dataCellStyle="Обычный">
       <calculatedColumnFormula>MAX(Таблица2[[#This Row],[АприорИСК1]]:Таблица2[[#This Row],[АприорИСК5]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="73" name="АприорИСК классификация" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="2" dataCellStyle="Обычный">
+    <tableColumn id="73" name="АприорИСК классификация" totalsRowFunction="custom" dataDxfId="2" totalsRowDxfId="1" dataCellStyle="Обычный">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[АприорИСК1]]=Таблица2[[#This Row],[АприорИСК максимум]],1,IF(Таблица2[[#This Row],[АприорИСК2]]=Таблица2[[#This Row],[АприорИСК максимум]],2,IF(Таблица2[[#This Row],[АприорИСК3]]=Таблица2[[#This Row],[АприорИСК максимум]],3,IF(Таблица2[[#This Row],[АприорИСК4]]=Таблица2[[#This Row],[АприорИСК максимум]],4,IF(Таблица2[[#This Row],[АприорИСК5]]=Таблица2[[#This Row],[АприорИСК максимум]],5)))))</calculatedColumnFormula>
       <totalsRowFormula>Таблица2[[#Totals],[АприорИскТочность]]/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="74" name="АприорИскТочность" totalsRowFunction="sum" dataDxfId="39" dataCellStyle="Обычный">
+    <tableColumn id="74" name="АприорИскТочность" totalsRowFunction="sum" dataDxfId="0" dataCellStyle="Обычный">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[АприорИСК классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6472,8 +6478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q87" sqref="Q87"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O87" sqref="O87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29932,10 +29938,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29947,9 +29953,10 @@
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>94</v>
       </c>
@@ -29974,8 +29981,14 @@
       <c r="H1" s="5" t="s">
         <v>185</v>
       </c>
+      <c r="I1" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>187</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -30000,8 +30013,14 @@
       <c r="H2">
         <v>101.27130896962112</v>
       </c>
+      <c r="I2">
+        <v>128.74541411419597</v>
+      </c>
+      <c r="J2">
+        <v>121.12381767221248</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -30026,8 +30045,14 @@
       <c r="H3">
         <v>19.207099864865551</v>
       </c>
+      <c r="I3">
+        <v>19.207099864865551</v>
+      </c>
+      <c r="J3">
+        <v>19.207099864865551</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -30052,8 +30077,14 @@
       <c r="H4">
         <v>103.44492821402197</v>
       </c>
+      <c r="I4">
+        <v>61.656524376023469</v>
+      </c>
+      <c r="J4">
+        <v>103.44492821402197</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -30078,8 +30109,14 @@
       <c r="H5">
         <v>89.887724883323898</v>
       </c>
+      <c r="I5">
+        <v>94.447403496011518</v>
+      </c>
+      <c r="J5">
+        <v>68.949242449989754</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -30104,8 +30141,14 @@
       <c r="H6">
         <v>105.91446299575053</v>
       </c>
+      <c r="I6">
+        <v>131.36834536913122</v>
+      </c>
+      <c r="J6">
+        <v>101.78890614518635</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -30116,7 +30159,7 @@
         <v>96.163392548052414</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -30127,7 +30170,7 @@
         <v>90.405260257787234</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>112</v>
       </c>
@@ -30148,7 +30191,7 @@
         <v>409.31585121753204</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" ref="F9:H9" si="0">SUM(F2:F8)</f>
+        <f t="shared" ref="F9:J9" si="0">SUM(F2:F8)</f>
         <v>432.46317637593359</v>
       </c>
       <c r="G9" s="6">
@@ -30158,6 +30201,14 @@
       <c r="H9" s="6">
         <f t="shared" si="0"/>
         <v>419.72552492758308</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="0"/>
+        <v>435.4247872202277</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="0"/>
+        <v>414.51399434627609</v>
       </c>
     </row>
   </sheetData>

--- a/Многомерный анализ и прогнозирование/лаб 2/Переделка.xlsx
+++ b/Многомерный анализ и прогнозирование/лаб 2/Переделка.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="5" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -668,6 +668,8 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -804,9 +806,6 @@
   </cellStyles>
   <dxfs count="79">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="solid">
@@ -814,12 +813,6 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -840,7 +833,13 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -852,15 +851,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="solid">
@@ -868,24 +858,6 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -911,12 +883,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1060,25 +1026,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="solid">
@@ -1086,25 +1033,6 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1141,7 +1069,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1178,7 +1105,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1215,7 +1141,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1252,136 +1177,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="solid">
@@ -1389,25 +1184,6 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1457,7 +1233,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1476,6 +1251,295 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1513,6 +1577,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1550,6 +1615,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1587,6 +1653,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1624,6 +1691,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1661,6 +1729,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1698,6 +1767,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1735,6 +1805,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1772,6 +1843,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1809,6 +1881,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1846,6 +1919,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1883,6 +1957,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1920,81 +1995,8 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3076,11 +3078,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="465814128"/>
-        <c:axId val="520673728"/>
+        <c:axId val="2139158848"/>
+        <c:axId val="2139162656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="465814128"/>
+        <c:axId val="2139158848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3123,7 +3125,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520673728"/>
+        <c:crossAx val="2139162656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3131,7 +3133,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="520673728"/>
+        <c:axId val="2139162656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3182,7 +3184,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465814128"/>
+        <c:crossAx val="2139158848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3846,7 +3848,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5636,7 +5638,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица5" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица5" cacheId="5" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:F13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -6061,60 +6063,60 @@
     <sortCondition ref="O1:O86"/>
   </sortState>
   <tableColumns count="73">
-    <tableColumn id="1" name="Регион" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="2" name="Cluster Membership-Ward" totalsRowFunction="count" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="3" name="Cluster Membership-Complete" totalsRowFunction="count" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="4" name="Cluster Membership-Single" totalsRowFunction="count" dataDxfId="70" totalsRowDxfId="69"/>
-    <tableColumn id="5" name="CLUSTER K-means" totalsRowFunction="count" dataDxfId="68" totalsRowDxfId="67"/>
-    <tableColumn id="6" name="X1" totalsRowFunction="average" dataDxfId="66" totalsRowDxfId="65"/>
-    <tableColumn id="7" name="X2" totalsRowFunction="average" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="8" name="X3" totalsRowFunction="average" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="9" name="X4" totalsRowFunction="average" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="10" name="X5" totalsRowFunction="average" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="11" name="X6" totalsRowFunction="average" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="12" name="X7" totalsRowFunction="average" dataDxfId="54" totalsRowDxfId="53"/>
-    <tableColumn id="13" name="X8" totalsRowFunction="average" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="14" name="X9" totalsRowFunction="average" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="15" name="Расстояние" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="47">
+    <tableColumn id="1" name="Регион" dataDxfId="76" totalsRowDxfId="38"/>
+    <tableColumn id="2" name="Cluster Membership-Ward" totalsRowFunction="count" dataDxfId="75" totalsRowDxfId="37"/>
+    <tableColumn id="3" name="Cluster Membership-Complete" totalsRowFunction="count" dataDxfId="74" totalsRowDxfId="36"/>
+    <tableColumn id="4" name="Cluster Membership-Single" totalsRowFunction="count" dataDxfId="73" totalsRowDxfId="35"/>
+    <tableColumn id="5" name="CLUSTER K-means" totalsRowFunction="count" dataDxfId="72" totalsRowDxfId="34"/>
+    <tableColumn id="6" name="X1" totalsRowFunction="average" dataDxfId="71" totalsRowDxfId="33"/>
+    <tableColumn id="7" name="X2" totalsRowFunction="average" dataDxfId="70" totalsRowDxfId="32"/>
+    <tableColumn id="8" name="X3" totalsRowFunction="average" dataDxfId="69" totalsRowDxfId="31"/>
+    <tableColumn id="9" name="X4" totalsRowFunction="average" dataDxfId="68" totalsRowDxfId="30"/>
+    <tableColumn id="10" name="X5" totalsRowFunction="average" dataDxfId="67" totalsRowDxfId="29"/>
+    <tableColumn id="11" name="X6" totalsRowFunction="average" dataDxfId="66" totalsRowDxfId="28"/>
+    <tableColumn id="12" name="X7" totalsRowFunction="average" dataDxfId="65" totalsRowDxfId="27"/>
+    <tableColumn id="13" name="X8" totalsRowFunction="average" dataDxfId="64" totalsRowDxfId="26"/>
+    <tableColumn id="14" name="X9" totalsRowFunction="average" dataDxfId="63" totalsRowDxfId="25"/>
+    <tableColumn id="15" name="Расстояние" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="24">
       <calculatedColumnFormula>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="обучающая выборка" totalsRowFunction="count" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="17" name="функция" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="43">
+    <tableColumn id="16" name="обучающая выборка" totalsRowFunction="count" dataDxfId="61" totalsRowDxfId="23"/>
+    <tableColumn id="17" name="функция" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="22">
       <totalsRowFormula>30/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" name="Observed Махаланобис" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="20" name="Махал1" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="21" name="Махал2" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="22" name="Махал3" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="23" name="Махал4" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="24" name="Махал5" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="25" name="Минимум Махаланобис" dataDxfId="30" totalsRowDxfId="29">
+    <tableColumn id="18" name="Observed Махаланобис" dataDxfId="59" totalsRowDxfId="21"/>
+    <tableColumn id="20" name="Махал1" dataDxfId="58" totalsRowDxfId="20"/>
+    <tableColumn id="21" name="Махал2" dataDxfId="57" totalsRowDxfId="19"/>
+    <tableColumn id="22" name="Махал3" dataDxfId="56" totalsRowDxfId="18"/>
+    <tableColumn id="23" name="Махал4" dataDxfId="55" totalsRowDxfId="17"/>
+    <tableColumn id="24" name="Махал5" dataDxfId="54" totalsRowDxfId="16"/>
+    <tableColumn id="25" name="Минимум Махаланобис" dataDxfId="53" totalsRowDxfId="15">
       <calculatedColumnFormula>MIN(Таблица2[[#This Row],[Махал1]:[Махал5]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="Махаланобис классификация" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="27">
+    <tableColumn id="26" name="Махаланобис классификация" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="14">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,)))))</calculatedColumnFormula>
       <totalsRowFormula>Таблица2[[#Totals],[Точность Махал]]/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="27" name="Точность Махал" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25">
+    <tableColumn id="27" name="Точность Махал" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="13">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" name="априор" totalsRowDxfId="24"/>
-    <tableColumn id="28" name="априор1" totalsRowDxfId="23"/>
-    <tableColumn id="29" name="априор2" totalsRowDxfId="22"/>
-    <tableColumn id="30" name="априор3" totalsRowDxfId="21"/>
-    <tableColumn id="31" name="априор4" totalsRowDxfId="20"/>
-    <tableColumn id="32" name="априор5" totalsRowDxfId="19"/>
-    <tableColumn id="34" name="априор макс" dataDxfId="18" dataCellStyle="Обычный">
+    <tableColumn id="33" name="априор" totalsRowDxfId="12"/>
+    <tableColumn id="28" name="априор1" totalsRowDxfId="11"/>
+    <tableColumn id="29" name="априор2" totalsRowDxfId="10"/>
+    <tableColumn id="30" name="априор3" totalsRowDxfId="9"/>
+    <tableColumn id="31" name="априор4" totalsRowDxfId="8"/>
+    <tableColumn id="32" name="априор5" totalsRowDxfId="7"/>
+    <tableColumn id="34" name="априор макс" dataDxfId="50" dataCellStyle="Обычный">
       <calculatedColumnFormula>MAX(Таблица2[[#This Row],[априор1]:[априор5]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" name="Априор Классификация" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Обычный">
+    <tableColumn id="35" name="Априор Классификация" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="6" dataCellStyle="Обычный">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5)))))</calculatedColumnFormula>
       <totalsRowFormula>Таблица2[[#Totals],[Точность Априор]]/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="36" name="Точность Априор" totalsRowFunction="sum" dataDxfId="15" dataCellStyle="Обычный">
+    <tableColumn id="36" name="Точность Априор" totalsRowFunction="sum" dataDxfId="48" dataCellStyle="Обычный">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" name="фнкция ДА ВКЛ" totalsRowFunction="custom" totalsRowDxfId="14" dataCellStyle="Обычный">
+    <tableColumn id="37" name="фнкция ДА ВКЛ" totalsRowFunction="custom" totalsRowDxfId="5" dataCellStyle="Обычный">
       <totalsRowFormula>28/30</totalsRowFormula>
     </tableColumn>
     <tableColumn id="38" name="Observed МахаланобисВКЛ" dataCellStyle="Обычный"/>
@@ -6123,14 +6125,14 @@
     <tableColumn id="41" name="Махал3ВКЛ" dataCellStyle="Обычный"/>
     <tableColumn id="42" name="Махал4ВКЛ" dataCellStyle="Обычный"/>
     <tableColumn id="43" name="Махал5ВКл" dataCellStyle="Обычный"/>
-    <tableColumn id="44" name="Ммхаланобис минимум ВКЛ" dataDxfId="13" dataCellStyle="Обычный">
+    <tableColumn id="44" name="Ммхаланобис минимум ВКЛ" dataDxfId="47" dataCellStyle="Обычный">
       <calculatedColumnFormula>MIN(Таблица2[[#This Row],[Махал1ВКЛ]:[Махал5ВКл]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="45" name="МахаланобисКлассификацияВКЛ" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="11" dataCellStyle="Обычный">
+    <tableColumn id="45" name="МахаланобисКлассификацияВКЛ" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="4" dataCellStyle="Обычный">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[Ммхаланобис минимум ВКЛ]]=Таблица2[[#This Row],[Махал1ВКЛ]],1,IF(Таблица2[[#This Row],[Ммхаланобис минимум ВКЛ]]=Таблица2[[#This Row],[Махал2ВКл]],2,IF(Таблица2[[#This Row],[Ммхаланобис минимум ВКЛ]]=Таблица2[[#This Row],[Махал3ВКЛ]],3,IF(Таблица2[[#This Row],[Ммхаланобис минимум ВКЛ]]=Таблица2[[#This Row],[Махал4ВКЛ]],4,IF(Таблица2[[#This Row],[Ммхаланобис минимум ВКЛ]]=Таблица2[[#This Row],[Махал5ВКл]],5,)))))</calculatedColumnFormula>
       <totalsRowFormula>Таблица2[[#Totals],[Махал точность ВКЛ]]/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="46" name="Махал точность ВКЛ" totalsRowFunction="sum" dataDxfId="10" dataCellStyle="Обычный">
+    <tableColumn id="46" name="Махал точность ВКЛ" totalsRowFunction="sum" dataDxfId="45" dataCellStyle="Обычный">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[МахаланобисКлассификацияВКЛ]],1,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="47" name="априорВКЛ" dataCellStyle="Обычный"/>
@@ -6139,17 +6141,17 @@
     <tableColumn id="50" name="АприорВКл3" dataCellStyle="Обычный"/>
     <tableColumn id="51" name="АприорВКл4" dataCellStyle="Обычный"/>
     <tableColumn id="52" name="АприорВКл5" dataCellStyle="Обычный"/>
-    <tableColumn id="53" name="АприорВКЛ макс" dataDxfId="9" dataCellStyle="Обычный">
+    <tableColumn id="53" name="АприорВКЛ макс" dataDxfId="44" dataCellStyle="Обычный">
       <calculatedColumnFormula>MAX(Таблица2[[#This Row],[АприорВКл1]:[АприорВКл5]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="54" name="АприорВклКлассификация" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="7" dataCellStyle="Обычный">
+    <tableColumn id="54" name="АприорВклКлассификация" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="3" dataCellStyle="Обычный">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[АприорВКЛ макс]]=Таблица2[[#This Row],[АприорВКл1]],1,IF(Таблица2[[#This Row],[АприорВКЛ макс]]=Таблица2[[#This Row],[АприорВКл2]],2,IF(Таблица2[[#This Row],[АприорВКЛ макс]]=Таблица2[[#This Row],[АприорВКл3]],3,IF(Таблица2[[#This Row],[АприорВКЛ макс]]=Таблица2[[#This Row],[АприорВКл4]],4,IF(Таблица2[[#This Row],[АприорВКЛ макс]]=Таблица2[[#This Row],[АприорВКл5]],5)))))</calculatedColumnFormula>
       <totalsRowFormula>Таблица2[[#Totals],[Точность априор вкл]]/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="55" name="Точность априор вкл" totalsRowFunction="sum" dataDxfId="6" dataCellStyle="Обычный">
+    <tableColumn id="55" name="Точность априор вкл" totalsRowFunction="sum" dataDxfId="42" dataCellStyle="Обычный">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[АприорВклКлассификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="56" name="Фунция ДА ИСК" totalsRowFunction="custom" totalsRowDxfId="5" dataCellStyle="Обычный">
+    <tableColumn id="56" name="Фунция ДА ИСК" totalsRowFunction="custom" totalsRowDxfId="2" dataCellStyle="Обычный">
       <totalsRowFormula>28/30</totalsRowFormula>
     </tableColumn>
     <tableColumn id="57" name="Observed МахаланобисИСК" dataCellStyle="Обычный"/>
@@ -6161,7 +6163,7 @@
     <tableColumn id="63" name="Махал минимум ИСК" dataCellStyle="Обычный">
       <calculatedColumnFormula>MIN(Таблица2[[#This Row],[Махал1ИСК]:[Махал5ИСК]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="64" name="МАХАЛ ИСК Классификация" totalsRowFunction="custom" totalsRowDxfId="4" dataCellStyle="Обычный">
+    <tableColumn id="64" name="МАХАЛ ИСК Классификация" totalsRowFunction="custom" totalsRowDxfId="1" dataCellStyle="Обычный">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[Махал минимум ИСК]]=Таблица2[[#This Row],[Махал1ИСК]],1,IF(Таблица2[[#This Row],[Махал минимум ИСК]]=Таблица2[[#This Row],[Махал2ИСК]],2,IF(Таблица2[[#This Row],[Махал минимум ИСК]]=Таблица2[[#This Row],[Махал3ИСК]],3,IF(Таблица2[[#This Row],[Махал минимум ИСК]]=Таблица2[[#This Row],[Махал4ИСК]],4,IF(Таблица2[[#This Row],[Махал минимум ИСК]]=Таблица2[[#This Row],[Махал5ИСК]],5,)))))</calculatedColumnFormula>
       <totalsRowFormula>Таблица2[[#Totals],[МАХАЛ ИСК точность]]/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
@@ -6174,14 +6176,14 @@
     <tableColumn id="69" name="АприорИСК3" dataCellStyle="Обычный"/>
     <tableColumn id="70" name="АприорИСК4" dataCellStyle="Обычный"/>
     <tableColumn id="71" name="АприорИСК5" dataCellStyle="Обычный"/>
-    <tableColumn id="72" name="АприорИСК максимум" dataDxfId="3" dataCellStyle="Обычный">
+    <tableColumn id="72" name="АприорИСК максимум" dataDxfId="41" dataCellStyle="Обычный">
       <calculatedColumnFormula>MAX(Таблица2[[#This Row],[АприорИСК1]]:Таблица2[[#This Row],[АприорИСК5]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="73" name="АприорИСК классификация" totalsRowFunction="custom" dataDxfId="2" totalsRowDxfId="1" dataCellStyle="Обычный">
+    <tableColumn id="73" name="АприорИСК классификация" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="0" dataCellStyle="Обычный">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[АприорИСК1]]=Таблица2[[#This Row],[АприорИСК максимум]],1,IF(Таблица2[[#This Row],[АприорИСК2]]=Таблица2[[#This Row],[АприорИСК максимум]],2,IF(Таблица2[[#This Row],[АприорИСК3]]=Таблица2[[#This Row],[АприорИСК максимум]],3,IF(Таблица2[[#This Row],[АприорИСК4]]=Таблица2[[#This Row],[АприорИСК максимум]],4,IF(Таблица2[[#This Row],[АприорИСК5]]=Таблица2[[#This Row],[АприорИСК максимум]],5)))))</calculatedColumnFormula>
       <totalsRowFormula>Таблица2[[#Totals],[АприорИскТочность]]/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="74" name="АприорИскТочность" totalsRowFunction="sum" dataDxfId="0" dataCellStyle="Обычный">
+    <tableColumn id="74" name="АприорИскТочность" totalsRowFunction="sum" dataDxfId="39" dataCellStyle="Обычный">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[АприорИСК классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6478,8 +6480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O87" sqref="O87"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Многомерный анализ и прогнозирование/лаб 2/Переделка.xlsx
+++ b/Многомерный анализ и прогнозирование/лаб 2/Переделка.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Итоги" sheetId="7" r:id="rId1"/>
@@ -885,13 +885,7 @@
   </cellStyles>
   <dxfs count="96">
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -903,79 +897,13 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1008,6 +936,171 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="solid">
@@ -1016,6 +1109,12 @@
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1159,6 +1258,25 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="solid">
@@ -1166,6 +1284,25 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1202,6 +1339,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1238,6 +1376,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1274,6 +1413,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1310,11 +1450,166 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1362,9 +1657,59 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1392,6 +1737,25 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1441,6 +1805,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1459,383 +1824,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1873,7 +1861,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1911,7 +1898,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1949,7 +1935,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1987,57 +1972,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2075,7 +2009,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2113,7 +2046,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2151,7 +2083,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2189,7 +2120,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2227,7 +2157,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2265,7 +2194,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2303,7 +2231,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2341,8 +2268,81 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3424,11 +3424,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-733212544"/>
-        <c:axId val="-733211456"/>
+        <c:axId val="-313069616"/>
+        <c:axId val="-313070704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-733212544"/>
+        <c:axId val="-313069616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3471,7 +3471,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-733211456"/>
+        <c:crossAx val="-313070704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3479,7 +3479,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-733211456"/>
+        <c:axId val="-313070704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3530,7 +3530,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-733212544"/>
+        <c:crossAx val="-313069616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7039,78 +7039,78 @@
     <sortCondition ref="A1:A86"/>
   </sortState>
   <tableColumns count="82">
-    <tableColumn id="1" name="Регион" dataDxfId="93" totalsRowDxfId="47"/>
-    <tableColumn id="2" name="Cluster Membership-Ward" totalsRowFunction="count" dataDxfId="92" totalsRowDxfId="46"/>
-    <tableColumn id="3" name="Cluster Membership-Complete" totalsRowFunction="count" dataDxfId="91" totalsRowDxfId="45"/>
-    <tableColumn id="4" name="Cluster Membership-Single" totalsRowFunction="count" dataDxfId="90" totalsRowDxfId="44"/>
-    <tableColumn id="5" name="CLUSTER K-means" totalsRowFunction="count" dataDxfId="89" totalsRowDxfId="43"/>
-    <tableColumn id="6" name="X1" totalsRowFunction="average" dataDxfId="88" totalsRowDxfId="42"/>
-    <tableColumn id="7" name="X2" totalsRowFunction="average" dataDxfId="87" totalsRowDxfId="41"/>
-    <tableColumn id="8" name="X3" totalsRowFunction="average" dataDxfId="86" totalsRowDxfId="40"/>
-    <tableColumn id="9" name="X4" totalsRowFunction="average" dataDxfId="85" totalsRowDxfId="39"/>
-    <tableColumn id="10" name="X5" totalsRowFunction="average" dataDxfId="84" totalsRowDxfId="38"/>
-    <tableColumn id="11" name="X6" totalsRowFunction="average" dataDxfId="83" totalsRowDxfId="37"/>
-    <tableColumn id="12" name="X7" totalsRowFunction="average" dataDxfId="82" totalsRowDxfId="36"/>
-    <tableColumn id="13" name="X8" totalsRowFunction="average" dataDxfId="81" totalsRowDxfId="35"/>
-    <tableColumn id="14" name="X9" totalsRowFunction="average" dataDxfId="80" totalsRowDxfId="34"/>
-    <tableColumn id="15" name="Расстояние" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="33">
+    <tableColumn id="1" name="Регион" dataDxfId="93" totalsRowDxfId="92"/>
+    <tableColumn id="2" name="Cluster Membership-Ward" totalsRowFunction="count" dataDxfId="91" totalsRowDxfId="90"/>
+    <tableColumn id="3" name="Cluster Membership-Complete" totalsRowFunction="count" dataDxfId="89" totalsRowDxfId="88"/>
+    <tableColumn id="4" name="Cluster Membership-Single" totalsRowFunction="count" dataDxfId="87" totalsRowDxfId="86"/>
+    <tableColumn id="5" name="CLUSTER K-means" totalsRowFunction="count" dataDxfId="85" totalsRowDxfId="84"/>
+    <tableColumn id="6" name="X1" totalsRowFunction="average" dataDxfId="83" totalsRowDxfId="82"/>
+    <tableColumn id="7" name="X2" totalsRowFunction="average" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="8" name="X3" totalsRowFunction="average" dataDxfId="79" totalsRowDxfId="78"/>
+    <tableColumn id="9" name="X4" totalsRowFunction="average" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="10" name="X5" totalsRowFunction="average" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="11" name="X6" totalsRowFunction="average" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="12" name="X7" totalsRowFunction="average" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="13" name="X8" totalsRowFunction="average" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="14" name="X9" totalsRowFunction="average" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="15" name="Расстояние" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="64">
       <calculatedColumnFormula>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="обучающая выборка" totalsRowFunction="count" dataDxfId="78" totalsRowDxfId="32"/>
-    <tableColumn id="17" name="функция" totalsRowFunction="custom" dataDxfId="77" totalsRowDxfId="31">
+    <tableColumn id="16" name="обучающая выборка" totalsRowFunction="count" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="17" name="функция" totalsRowFunction="custom" dataDxfId="61" totalsRowDxfId="60">
       <totalsRowFormula>Таблица2[[#Totals],[Точность функции]]/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="80" name="Точность функции" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="30" dataCellStyle="Обычный_Итоги">
+    <tableColumn id="80" name="Точность функции" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="58" dataCellStyle="Обычный_Итоги">
       <calculatedColumnFormula>IF(VALUE(RIGHT(Таблица2[[#This Row],[функция]],1))=Таблица2[[#This Row],[обучающая выборка]],1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="77" name="точность " totalsRowFunction="sum" dataDxfId="76" totalsRowDxfId="29" dataCellStyle="Обычный_Итоги">
+    <tableColumn id="77" name="точность " totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56" dataCellStyle="Обычный_Итоги">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Result Lda]],1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="Result Lda" totalsRowFunction="custom" dataDxfId="75" totalsRowDxfId="28" dataCellStyle="Обычный_Итоги">
+    <tableColumn id="19" name="Result Lda" totalsRowFunction="custom" dataDxfId="55" totalsRowDxfId="54" dataCellStyle="Обычный_Итоги">
       <totalsRowFormula>Таблица2[[#Totals],[точность ]]/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" name="Observed Махаланобис" dataDxfId="74" totalsRowDxfId="27"/>
-    <tableColumn id="20" name="Махал1" dataDxfId="73" totalsRowDxfId="26"/>
-    <tableColumn id="21" name="Махал2" dataDxfId="72" totalsRowDxfId="25"/>
-    <tableColumn id="22" name="Махал3" dataDxfId="71" totalsRowDxfId="24"/>
-    <tableColumn id="23" name="Махал4" dataDxfId="70" totalsRowDxfId="23"/>
-    <tableColumn id="24" name="Махал5" dataDxfId="69" totalsRowDxfId="22"/>
-    <tableColumn id="25" name="Минимум Махаланобис" dataDxfId="68" totalsRowDxfId="21">
+    <tableColumn id="18" name="Observed Махаланобис" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="20" name="Махал1" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="21" name="Махал2" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="22" name="Махал3" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="23" name="Махал4" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="24" name="Махал5" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="25" name="Минимум Махаланобис" dataDxfId="41" totalsRowDxfId="40">
       <calculatedColumnFormula>MIN(Таблица2[[#This Row],[Махал1]:[Махал5]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="Махаланобис классификация" totalsRowFunction="custom" dataDxfId="67" totalsRowDxfId="20">
+    <tableColumn id="26" name="Махаланобис классификация" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал1]],1,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал2]],2,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал3]],3,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал4]],4,IF(Таблица2[[#This Row],[Минимум Махаланобис]]=Таблица2[[#This Row],[Махал5]],5,)))))</calculatedColumnFormula>
       <totalsRowFormula>Таблица2[[#Totals],[Точность Махал]]/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="27" name="Точность Махал" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="19">
+    <tableColumn id="27" name="Точность Махал" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[Махаланобис классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" name="априор" totalsRowDxfId="18"/>
-    <tableColumn id="28" name="априор1" totalsRowDxfId="17"/>
-    <tableColumn id="29" name="априор2" totalsRowDxfId="16"/>
-    <tableColumn id="30" name="априор3" totalsRowDxfId="15"/>
-    <tableColumn id="31" name="априор4" totalsRowDxfId="14"/>
-    <tableColumn id="32" name="априор5" totalsRowDxfId="13"/>
-    <tableColumn id="34" name="априор макс" dataDxfId="65">
+    <tableColumn id="33" name="априор" totalsRowDxfId="35"/>
+    <tableColumn id="28" name="априор1" totalsRowDxfId="34"/>
+    <tableColumn id="29" name="априор2" totalsRowDxfId="33"/>
+    <tableColumn id="30" name="априор3" totalsRowDxfId="32"/>
+    <tableColumn id="31" name="априор4" totalsRowDxfId="31"/>
+    <tableColumn id="32" name="априор5" totalsRowDxfId="30"/>
+    <tableColumn id="34" name="априор макс" dataDxfId="29">
       <calculatedColumnFormula>MAX(Таблица2[[#This Row],[априор1]:[априор5]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" name="Априор Классификация" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="12">
+    <tableColumn id="35" name="Априор Классификация" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="27">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор1]],1,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор2]],2,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор3]],3,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор4]],4,IF(Таблица2[[#This Row],[априор макс]]=Таблица2[[#This Row],[априор5]],5)))))</calculatedColumnFormula>
       <totalsRowFormula>Таблица2[[#Totals],[Точность Априор]]/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="36" name="Точность Априор" totalsRowFunction="sum" dataDxfId="63">
+    <tableColumn id="36" name="Точность Априор" totalsRowFunction="sum" dataDxfId="26">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Априор Классификация]],1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" name="фнкция ДА ВКЛ" totalsRowFunction="custom" totalsRowDxfId="11">
+    <tableColumn id="37" name="фнкция ДА ВКЛ" totalsRowFunction="custom" totalsRowDxfId="25">
       <totalsRowFormula>Таблица2[[#Totals],[точность ДА ВКЛ]]/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="81" name="точность ДА ВКЛ" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="10">
+    <tableColumn id="81" name="точность ДА ВКЛ" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23">
       <calculatedColumnFormula>IF(VALUE(RIGHT(Таблица2[[#This Row],[фнкция ДА ВКЛ]],1))=Таблица2[[#This Row],[обучающая выборка]],1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="78" name="точность" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="9">
+    <tableColumn id="78" name="точность" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Result forward]],1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="75" name="Result forward" totalsRowFunction="custom" totalsRowDxfId="8">
+    <tableColumn id="75" name="Result forward" totalsRowFunction="custom" totalsRowDxfId="20">
       <totalsRowFormula>Таблица2[[#Totals],[точность]]/30</totalsRowFormula>
     </tableColumn>
     <tableColumn id="38" name="Observed МахаланобисВКЛ"/>
@@ -7119,14 +7119,14 @@
     <tableColumn id="41" name="Махал3ВКЛ"/>
     <tableColumn id="42" name="Махал4ВКЛ"/>
     <tableColumn id="43" name="Махал5ВКл"/>
-    <tableColumn id="44" name="Ммхаланобис минимум ВКЛ" dataDxfId="61">
+    <tableColumn id="44" name="Ммхаланобис минимум ВКЛ" dataDxfId="19">
       <calculatedColumnFormula>MIN(Таблица2[[#This Row],[Махал1ВКЛ]:[Махал5ВКл]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="45" name="МахаланобисКлассификацияВКЛ" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="7">
+    <tableColumn id="45" name="МахаланобисКлассификацияВКЛ" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="17">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[Ммхаланобис минимум ВКЛ]]=Таблица2[[#This Row],[Махал1ВКЛ]],1,IF(Таблица2[[#This Row],[Ммхаланобис минимум ВКЛ]]=Таблица2[[#This Row],[Махал2ВКл]],2,IF(Таблица2[[#This Row],[Ммхаланобис минимум ВКЛ]]=Таблица2[[#This Row],[Махал3ВКЛ]],3,IF(Таблица2[[#This Row],[Ммхаланобис минимум ВКЛ]]=Таблица2[[#This Row],[Махал4ВКЛ]],4,IF(Таблица2[[#This Row],[Ммхаланобис минимум ВКЛ]]=Таблица2[[#This Row],[Махал5ВКл]],5,)))))</calculatedColumnFormula>
       <totalsRowFormula>Таблица2[[#Totals],[Махал точность ВКЛ]]/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="46" name="Махал точность ВКЛ" totalsRowFunction="sum" dataDxfId="59">
+    <tableColumn id="46" name="Махал точность ВКЛ" totalsRowFunction="sum" dataDxfId="16">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[МахаланобисКлассификацияВКЛ]],1,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="47" name="априорВКЛ"/>
@@ -7135,26 +7135,26 @@
     <tableColumn id="50" name="АприорВКл3"/>
     <tableColumn id="51" name="АприорВКл4"/>
     <tableColumn id="52" name="АприорВКл5"/>
-    <tableColumn id="53" name="АприорВКЛ макс" dataDxfId="58">
+    <tableColumn id="53" name="АприорВКЛ макс" dataDxfId="15">
       <calculatedColumnFormula>MAX(Таблица2[[#This Row],[АприорВКл1]:[АприорВКл5]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="54" name="АприорВклКлассификация" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="6">
+    <tableColumn id="54" name="АприорВклКлассификация" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="13">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[АприорВКЛ макс]]=Таблица2[[#This Row],[АприорВКл1]],1,IF(Таблица2[[#This Row],[АприорВКЛ макс]]=Таблица2[[#This Row],[АприорВКл2]],2,IF(Таблица2[[#This Row],[АприорВКЛ макс]]=Таблица2[[#This Row],[АприорВКл3]],3,IF(Таблица2[[#This Row],[АприорВКЛ макс]]=Таблица2[[#This Row],[АприорВКл4]],4,IF(Таблица2[[#This Row],[АприорВКЛ макс]]=Таблица2[[#This Row],[АприорВКл5]],5)))))</calculatedColumnFormula>
       <totalsRowFormula>Таблица2[[#Totals],[Точность априор вкл]]/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="55" name="Точность априор вкл" totalsRowFunction="sum" dataDxfId="56">
+    <tableColumn id="55" name="Точность априор вкл" totalsRowFunction="sum" dataDxfId="12">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[АприорВклКлассификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="56" name="Фунция ДА ИСК" totalsRowFunction="custom" totalsRowDxfId="5">
+    <tableColumn id="56" name="Фунция ДА ИСК" totalsRowFunction="custom" totalsRowDxfId="11">
       <totalsRowFormula>Таблица2[[#Totals],[точность ДА ИСК]]/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="82" name="точность ДА ИСК" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="4" dataCellStyle="Обычный_Итоги">
+    <tableColumn id="82" name="точность ДА ИСК" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9" dataCellStyle="Обычный_Итоги">
       <calculatedColumnFormula>IF(VALUE(RIGHT(Таблица2[[#This Row],[Фунция ДА ИСК]]))=Таблица2[[#This Row],[обучающая выборка]],1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="79" name="точность2" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="3" dataCellStyle="Обычный_Итоги">
+    <tableColumn id="79" name="точность2" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7" dataCellStyle="Обычный_Итоги">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[обучающая выборка]]=Таблица2[[#This Row],[Result backward]],1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="76" name="Result backward" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="2" dataCellStyle="Обычный_Итоги">
+    <tableColumn id="76" name="Result backward" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="5" dataCellStyle="Обычный_Итоги">
       <totalsRowFormula>Таблица2[[#Totals],[точность2]]/30</totalsRowFormula>
     </tableColumn>
     <tableColumn id="57" name="Observed МахаланобисИСК"/>
@@ -7166,7 +7166,7 @@
     <tableColumn id="63" name="Махал минимум ИСК">
       <calculatedColumnFormula>MIN(Таблица2[[#This Row],[Махал1ИСК]:[Махал5ИСК]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="64" name="МАХАЛ ИСК Классификация" totalsRowFunction="custom" totalsRowDxfId="1">
+    <tableColumn id="64" name="МАХАЛ ИСК Классификация" totalsRowFunction="custom" totalsRowDxfId="4">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[Махал минимум ИСК]]=Таблица2[[#This Row],[Махал1ИСК]],1,IF(Таблица2[[#This Row],[Махал минимум ИСК]]=Таблица2[[#This Row],[Махал2ИСК]],2,IF(Таблица2[[#This Row],[Махал минимум ИСК]]=Таблица2[[#This Row],[Махал3ИСК]],3,IF(Таблица2[[#This Row],[Махал минимум ИСК]]=Таблица2[[#This Row],[Махал4ИСК]],4,IF(Таблица2[[#This Row],[Махал минимум ИСК]]=Таблица2[[#This Row],[Махал5ИСК]],5,)))))</calculatedColumnFormula>
       <totalsRowFormula>Таблица2[[#Totals],[МАХАЛ ИСК точность]]/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
@@ -7179,14 +7179,14 @@
     <tableColumn id="69" name="АприорИСК3"/>
     <tableColumn id="70" name="АприорИСК4"/>
     <tableColumn id="71" name="АприорИСК5"/>
-    <tableColumn id="72" name="АприорИСК максимум" dataDxfId="53">
+    <tableColumn id="72" name="АприорИСК максимум" dataDxfId="3">
       <calculatedColumnFormula>MAX(Таблица2[[#This Row],[АприорИСК1]]:Таблица2[[#This Row],[АприорИСК5]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="73" name="АприорИСК классификация" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="0">
+    <tableColumn id="73" name="АприорИСК классификация" totalsRowFunction="custom" dataDxfId="2" totalsRowDxfId="1">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[АприорИСК1]]=Таблица2[[#This Row],[АприорИСК максимум]],1,IF(Таблица2[[#This Row],[АприорИСК2]]=Таблица2[[#This Row],[АприорИСК максимум]],2,IF(Таблица2[[#This Row],[АприорИСК3]]=Таблица2[[#This Row],[АприорИСК максимум]],3,IF(Таблица2[[#This Row],[АприорИСК4]]=Таблица2[[#This Row],[АприорИСК максимум]],4,IF(Таблица2[[#This Row],[АприорИСК5]]=Таблица2[[#This Row],[АприорИСК максимум]],5)))))</calculatedColumnFormula>
       <totalsRowFormula>Таблица2[[#Totals],[АприорИскТочность]]/Таблица2[[#Totals],[обучающая выборка]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="74" name="АприорИскТочность" totalsRowFunction="sum" dataDxfId="51">
+    <tableColumn id="74" name="АприорИскТочность" totalsRowFunction="sum" dataDxfId="0">
       <calculatedColumnFormula>IF(Таблица2[[#This Row],[АприорИСК классификация]]=Таблица2[[#This Row],[обучающая выборка]],1,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7483,11 +7483,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CD91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AZ77" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="BC77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BI87" sqref="BI87"/>
+      <selection pane="bottomRight" activeCell="BJ77" sqref="BJ77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33858,7 +33858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
